--- a/excel/Credit-Approval.xlsx
+++ b/excel/Credit-Approval.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Input 1</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Female = 0</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
@@ -149,6 +167,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F19" totalsRowShown="0">
+  <autoFilter ref="A1:F19"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,155 +447,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18.5</v>
-      </c>
-      <c r="B12">
-        <v>0.45</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>59.5</v>
+        <v>18.5</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>4.46</v>
-      </c>
       <c r="F13">
-        <v>3.04</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24.5</v>
+        <v>59.5</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -574,18 +609,18 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>4.46</v>
       </c>
       <c r="F14">
-        <v>1.5</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="B15">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -594,35 +629,35 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>25.98</v>
+        <v>28.5</v>
       </c>
       <c r="B16">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="F16">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>23.08</v>
+        <v>25.98</v>
       </c>
       <c r="B17">
         <v>0.45</v>
@@ -634,40 +669,63 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>23.08</v>
+      </c>
+      <c r="B18">
+        <v>0.45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>39.85</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.15</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="A12:F16">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="A13:F17">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -675,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
